--- a/src/main/resources/smartportfolio - deals.xlsx
+++ b/src/main/resources/smartportfolio - deals.xlsx
@@ -13,6 +13,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan2!$A$1:$D$87</definedName>
     <definedName name="saldo_2015">[1]Posição!$D$2</definedName>
     <definedName name="saldo_2016">[1]Posição!$D$186</definedName>
     <definedName name="saldo_2017">[1]Posição!$D$841</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="25">
   <si>
     <t xml:space="preserve">Data </t>
   </si>
@@ -40,25 +41,64 @@
     <t>BUY</t>
   </si>
   <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>18.860.059/0001-15</t>
+  </si>
+  <si>
+    <t>23.979.285/0001-50</t>
+  </si>
+  <si>
     <t>05.222.545/0001-66</t>
   </si>
   <si>
+    <t>12.412.610/0001-81</t>
+  </si>
+  <si>
+    <t>05.222.538/0001-64</t>
+  </si>
+  <si>
     <t>07.667.299/0001-81</t>
   </si>
   <si>
+    <t>11.447.124/0001-36</t>
+  </si>
+  <si>
+    <t>20.146.294/0001-71</t>
+  </si>
+  <si>
+    <t>21.983.022/0001-99</t>
+  </si>
+  <si>
+    <t>12.082.452/0001-49</t>
+  </si>
+  <si>
+    <t>23.731.781/0001-90</t>
+  </si>
+  <si>
     <t>10.474.810/0001-33</t>
   </si>
   <si>
     <t>11.858.554/0001-40</t>
   </si>
   <si>
-    <t>23.731.781/0001-90</t>
-  </si>
-  <si>
-    <t>05.222.538/0001-64</t>
-  </si>
-  <si>
-    <t>Tiipo</t>
+    <t>05.523.348/0001-87</t>
+  </si>
+  <si>
+    <t>21.946.695/0001-79</t>
+  </si>
+  <si>
+    <t>12.105.940/0001-24</t>
+  </si>
+  <si>
+    <t>13.966.590/0001-53</t>
+  </si>
+  <si>
+    <t>03.319.016/0001-50</t>
+  </si>
+  <si>
+    <t>26.559.284/0001-44</t>
   </si>
 </sst>
 </file>
@@ -105,7 +145,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -113,6 +153,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -466,26 +509,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
@@ -517,7 +560,7 @@
         <v>43102</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>8655.7269199999992</v>
@@ -531,7 +574,7 @@
         <v>43102</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>493.49378000000002</v>
@@ -541,140 +584,140 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>43103</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>723.11297999999999</v>
+        <v>166.92485275000001</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
-        <v>43104</v>
+      <c r="B6" s="1">
+        <v>43103</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>273.21742</v>
+        <v>2684.8182400999999</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>43104</v>
+        <v>43103</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>1094.3489099999999</v>
+        <v>723.11297999999999</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2">
-        <v>43105</v>
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43104</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>123.65054000000001</v>
+        <v>10211.067252999999</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="3">
-        <v>43108</v>
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43104</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>28.19519</v>
+        <v>5748.0034037100004</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1">
-        <v>43108</v>
+        <v>43104</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>132.16027</v>
+        <v>8109.88682548</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1">
-        <v>43111</v>
+        <v>4</v>
+      </c>
+      <c r="B11" s="2">
+        <v>43104</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>40.814399999999999</v>
+        <v>273.21742</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="3">
-        <v>43115</v>
+      <c r="B12" s="2">
+        <v>43104</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>46.948749999999997</v>
+        <v>1094.3489099999999</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="2">
-        <v>43117</v>
+      <c r="B13" s="4">
+        <v>43104</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>301.28863999999999</v>
+        <v>123.65054000000001</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1">
-        <v>43118</v>
+        <v>43108</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>154.48159999999999</v>
+        <v>143.92123504</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -682,13 +725,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="3">
-        <v>43122</v>
+        <v>43108</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15">
-        <v>0.19066</v>
+        <v>28.19519</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -696,13 +739,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="1">
-        <v>43129</v>
+        <v>43108</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>152.6831</v>
+        <v>132.16027</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -710,55 +753,55 @@
         <v>3</v>
       </c>
       <c r="B17" s="1">
-        <v>43130</v>
+        <v>43111</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>95.074209999999994</v>
+        <v>40.814399999999999</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" s="2">
-        <v>43132</v>
+        <v>43112</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18">
-        <v>158.65037000000001</v>
+        <v>51310.441200000001</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="3">
-        <v>43132</v>
+        <v>4</v>
+      </c>
+      <c r="B19" s="1">
+        <v>43115</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D19">
-        <v>1111.1328900000001</v>
+        <v>1234.1376290537701</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="3">
-        <v>43132</v>
+        <v>4</v>
+      </c>
+      <c r="B20" s="1">
+        <v>43115</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>2134.23794</v>
+        <v>15196.950935200201</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -766,69 +809,69 @@
         <v>3</v>
       </c>
       <c r="B21" s="3">
-        <v>43132</v>
+        <v>43115</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D21">
-        <v>6052.6050800000003</v>
+        <v>46.948749999999997</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B22" s="1">
-        <v>43133</v>
+        <v>43116</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>257.71915999999999</v>
+        <v>1660.0611253833799</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23" s="1">
-        <v>43136</v>
+        <v>43116</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D23">
-        <v>390.38754999999998</v>
+        <v>664.63252</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="3">
-        <v>43137</v>
+        <v>4</v>
+      </c>
+      <c r="B24" s="1">
+        <v>43116</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D24">
-        <v>222.07128</v>
+        <v>10341.9965895</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B25" s="1">
-        <v>43137</v>
+        <v>43116</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D25">
-        <v>3.51003</v>
+        <v>282.62926335999998</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -836,27 +879,27 @@
         <v>3</v>
       </c>
       <c r="B26" s="2">
-        <v>43138</v>
+        <v>43117</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D26">
-        <v>391.01497000000001</v>
+        <v>301.28863999999999</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B27" s="1">
-        <v>43139</v>
+        <v>43118</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D27">
-        <v>306.57407999999998</v>
+        <v>8021.0599023699997</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -864,13 +907,13 @@
         <v>3</v>
       </c>
       <c r="B28" s="1">
-        <v>43145</v>
+        <v>43118</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D28">
-        <v>312.69510000000002</v>
+        <v>154.48159999999999</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -878,69 +921,69 @@
         <v>4</v>
       </c>
       <c r="B29" s="1">
-        <v>43159</v>
+        <v>43122</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D29">
-        <v>4372.2601500000001</v>
+        <v>1353.1931675775099</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="2">
-        <v>43159</v>
+      <c r="B30" s="1">
+        <v>43122</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D30">
-        <v>78.614710000000002</v>
+        <v>246.49305700541399</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B31" s="1">
-        <v>43159</v>
+        <v>43122</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D31">
-        <v>46.113289999999999</v>
+        <v>2918.2514766323302</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="1">
-        <v>43161</v>
+      <c r="B32" s="3">
+        <v>43122</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D32">
-        <v>117.85995</v>
+        <v>0.19066</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="2">
-        <v>43164</v>
+      <c r="B33" s="1">
+        <v>43129</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D33">
-        <v>322.94103000000001</v>
+        <v>152.6831</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -948,90 +991,874 @@
         <v>3</v>
       </c>
       <c r="B34" s="1">
-        <v>43171</v>
+        <v>43130</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D34">
-        <v>78.223920000000007</v>
+        <v>95.074209999999994</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="2">
-        <v>43172</v>
+      <c r="B35" s="1">
+        <v>43131</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D35">
-        <v>620.74766</v>
+        <v>4168.1752500000002</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B36" s="1">
-        <v>43173</v>
+        <v>43132</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D36">
-        <v>12.48644</v>
+        <v>761.24175078949395</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B37" s="1">
-        <v>43175</v>
+        <v>43132</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D37">
-        <v>5.8920399999999997</v>
+        <v>427.02874000000003</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>3</v>
-      </c>
-      <c r="B38" s="2">
-        <v>43181</v>
+        <v>4</v>
+      </c>
+      <c r="B38" s="1">
+        <v>43132</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D38">
-        <v>413.95805000000001</v>
+        <v>147.467583430031</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B39" s="1">
+        <v>43132</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39">
+        <v>2911.2651392919802</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="2">
+        <v>43132</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40">
+        <v>158.65037000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="3">
+        <v>43132</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>1111.1328900000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="3">
+        <v>43132</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <v>2134.23794</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="3">
+        <v>43132</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43">
+        <v>6052.6050800000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="1">
+        <v>43133</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>21496.102047330001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="1">
+        <v>43133</v>
+      </c>
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45">
+        <v>257.71915999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="1">
+        <v>43136</v>
+      </c>
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46">
+        <v>390.38754999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="3">
+        <v>43137</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47">
+        <v>222.07128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="1">
+        <v>43137</v>
+      </c>
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48">
+        <v>3.51003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="2">
+        <v>43138</v>
+      </c>
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49">
+        <v>391.01497000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="1">
+        <v>43139</v>
+      </c>
+      <c r="C50" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50">
+        <v>4515.2211581963102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="1">
+        <v>43139</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51">
+        <v>306.57407999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="1">
+        <v>43145</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52">
+        <v>312.69510000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="1">
+        <v>43146</v>
+      </c>
+      <c r="C53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53">
+        <v>405.20971350999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="1">
+        <v>43146</v>
+      </c>
+      <c r="C54" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54">
+        <v>781.47598705222401</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="1">
+        <v>43147</v>
+      </c>
+      <c r="C55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D55">
+        <v>2543.27732815319</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="1">
+        <v>43150</v>
+      </c>
+      <c r="C56" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56">
+        <v>3803.6475762584</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="1">
+        <v>43151</v>
+      </c>
+      <c r="C57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57">
+        <v>1983.88737175611</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="1">
+        <v>43153</v>
+      </c>
+      <c r="C58" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58">
+        <v>3932.5805174228599</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="1">
+        <v>43158</v>
+      </c>
+      <c r="C59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59">
+        <v>1984.0376999228099</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="1">
+        <v>43159</v>
+      </c>
+      <c r="C60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60">
+        <v>32.620600000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="1">
+        <v>43159</v>
+      </c>
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61">
+        <v>4372.2601500000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="1">
+        <v>43159</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62">
+        <v>244.543130096309</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="2">
+        <v>43159</v>
+      </c>
+      <c r="C63" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63">
+        <v>78.614710000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="1">
+        <v>43159</v>
+      </c>
+      <c r="C64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64">
+        <v>1710.8423328250001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="1">
+        <v>43159</v>
+      </c>
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65">
+        <v>46.113289999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="1">
+        <v>43160</v>
+      </c>
+      <c r="C66" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66">
+        <v>369.59365015046399</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="1">
+        <v>43160</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67">
+        <v>128.10914038179999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="1">
+        <v>43160</v>
+      </c>
+      <c r="C68" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68">
+        <v>2700.8595971822801</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="1">
+        <v>43161</v>
+      </c>
+      <c r="C69" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69">
+        <v>117.85995</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="2">
+        <v>43164</v>
+      </c>
+      <c r="C70" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70">
+        <v>322.94103000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="1">
+        <v>43167</v>
+      </c>
+      <c r="C71" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71">
+        <v>1421.38090293</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="1">
+        <v>43167</v>
+      </c>
+      <c r="C72" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72">
+        <v>5870.7266882426002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="1">
+        <v>43171</v>
+      </c>
+      <c r="C73" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73">
+        <v>78.223920000000007</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="2">
+        <v>43172</v>
+      </c>
+      <c r="C74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74">
+        <v>620.74766</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="1">
+        <v>43173</v>
+      </c>
+      <c r="C75" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75">
+        <v>12.48644</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="1">
+        <v>43175</v>
+      </c>
+      <c r="C76" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76">
+        <v>5.8920399999999997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="3">
+        <v>43178</v>
+      </c>
+      <c r="C77" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77">
+        <v>455.69783999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="2">
+        <v>43181</v>
+      </c>
+      <c r="C78" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78">
+        <v>413.95805000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" s="1">
         <v>43182</v>
       </c>
-      <c r="C39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39">
+      <c r="C79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79">
         <v>153.65153000000001</v>
       </c>
     </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" s="1">
+        <v>43187</v>
+      </c>
+      <c r="C80" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80">
+        <v>285.73025000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" s="2">
+        <v>43188</v>
+      </c>
+      <c r="C81" t="s">
+        <v>23</v>
+      </c>
+      <c r="D81">
+        <v>1829.4881922552529</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="2">
+        <v>43188</v>
+      </c>
+      <c r="C82" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82">
+        <v>3287.8586399999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" s="1">
+        <v>43188</v>
+      </c>
+      <c r="C83" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83">
+        <v>86.67756</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="2">
+        <v>43188</v>
+      </c>
+      <c r="C84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84">
+        <v>486.30877874394901</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" s="2">
+        <v>43188</v>
+      </c>
+      <c r="C85" t="s">
+        <v>22</v>
+      </c>
+      <c r="D85">
+        <v>413.01789650000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" s="2">
+        <v>43188</v>
+      </c>
+      <c r="C86" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86">
+        <v>5754.1325892549403</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" s="2">
+        <v>43188</v>
+      </c>
+      <c r="C87" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87">
+        <v>620.47567000000004</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" s="2">
+        <v>43188</v>
+      </c>
+      <c r="C88" t="s">
+        <v>24</v>
+      </c>
+      <c r="D88">
+        <v>4479.4130119852607</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" s="1">
+        <v>43193</v>
+      </c>
+      <c r="C89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89">
+        <v>145.81833125987768</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" s="1">
+        <v>43193</v>
+      </c>
+      <c r="C90" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90">
+        <v>2876.1955820128733</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" s="1">
+        <v>43193</v>
+      </c>
+      <c r="C91" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91">
+        <v>423.99851000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" s="1">
+        <v>43193</v>
+      </c>
+      <c r="C92" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92">
+        <v>457.46264000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" s="1">
+        <v>43194</v>
+      </c>
+      <c r="C93" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93">
+        <v>118.88874</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" s="1">
+        <v>43194</v>
+      </c>
+      <c r="C94" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94">
+        <v>116.8464</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" s="1">
+        <v>43195</v>
+      </c>
+      <c r="C95" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95">
+        <v>242.16034999999999</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:F39">
-    <sortCondition ref="B2:B39"/>
-    <sortCondition ref="A2:A39"/>
-    <sortCondition ref="C2:C39"/>
+  <sortState ref="A2:D95">
+    <sortCondition ref="B2:B95"/>
+    <sortCondition ref="A2:A95"/>
+    <sortCondition ref="C2:C95"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/src/main/resources/smartportfolio - deals.xlsx
+++ b/src/main/resources/smartportfolio - deals.xlsx
@@ -513,7 +513,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
+      <selection pane="bottomLeft" activeCell="A96" sqref="A96:XFD98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
